--- a/datasets_cestas/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/datasets_cestas/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4336FB33-953A-48B9-9F75-02414AFFF81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8016F717-721B-4232-9C8D-C1185C5C6AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leite_ilheus" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
   </sheetPr>
   <dimension ref="A1:B224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2423,7 +2423,12 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="2"/>
+      <c r="A215" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B215" s="6">
+        <v>41.64</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>

--- a/datasets_cestas/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/datasets_cestas/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8016F717-721B-4232-9C8D-C1185C5C6AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00C019-29B0-436C-8391-3F02FE138BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leite_ilheus" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>ano</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>31-09-2022</t>
+  </si>
+  <si>
+    <t>31-11-2022</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2431,7 +2434,12 @@
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="2"/>
+      <c r="A216" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B216" s="6">
+        <v>41.82</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>

--- a/datasets_cestas/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/datasets_cestas/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00C019-29B0-436C-8391-3F02FE138BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD43876-D038-4284-82AD-5A8230A73214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,11 +365,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -378,7 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -707,7 +707,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2442,7 +2442,12 @@
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
+      <c r="A217" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B217" s="6">
+        <v>42.24</v>
+      </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
